--- a/vetting.xlsx
+++ b/vetting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gxexakis/Documents/projects/I2AM_PARIS/vetting_process/data_validation_inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csantorinaios\Desktop\NTUA\I2AMPARIS\data_validation_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CB272E-854C-8045-B708-18A800A86316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00A12B1-0D49-465E-80DA-556034A6B79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4540" yWindow="-21100" windowWidth="26880" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,101 +44,9 @@
     <t>Reference value</t>
   </si>
   <si>
-    <r>
-      <t>CO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">total emissions (EIP + AFOLU) </t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">CCS from Energy 2020 </t>
   </si>
   <si>
-    <r>
-      <t>CO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">EIP emissions </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>CH</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">4 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">emissions </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>CO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">emissions EIP 2010-2020 - % change </t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Primary Energy </t>
   </si>
   <si>
@@ -230,13 +138,25 @@
   </si>
   <si>
     <t>2010 - 2020 compare percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2 EIP emissions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH4 emissions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2 total emissions (EIP + AFOLU) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2 emissions EIP 2010-2020 - % change </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,18 +176,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,18 +184,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Tahoma"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -299,75 +213,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -701,71 +571,70 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C10"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="48.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="4"/>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" ht="43.2">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="6" customFormat="1" ht="28.8">
+      <c r="A2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="32">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="F2" s="5">
         <v>2020</v>
@@ -774,32 +643,32 @@
         <f>J2-J2*K2</f>
         <v>26550.6</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="5">
         <f>J2+J2*K2</f>
         <v>61951.4</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="7">
         <v>44251</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="5">
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16">
+    <row r="3" spans="1:11" s="6" customFormat="1">
       <c r="A3" s="5" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F3" s="5">
         <v>2020</v>
@@ -808,32 +677,32 @@
         <f>J3-J3*K3</f>
         <v>30116.799999999999</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="5">
         <f>J3+J3*K3</f>
         <v>45175.199999999997</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="7">
         <v>37646</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="5">
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16">
+    <row r="4" spans="1:11" s="6" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F4" s="5">
         <v>2020</v>
@@ -842,60 +711,60 @@
         <f>J4-J4*K4</f>
         <v>303.2</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="5">
         <f>J4+J4*K4</f>
         <v>454.8</v>
       </c>
       <c r="J4" s="5">
         <v>379</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="5">
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="32">
+    <row r="5" spans="1:11" s="6" customFormat="1" ht="28.8">
       <c r="A5" s="5" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G5" s="5">
         <v>0</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="5">
         <v>50</v>
       </c>
       <c r="J5" s="5"/>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" ht="32">
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" s="6" customFormat="1" ht="28.8">
       <c r="A6" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F6" s="5">
         <v>2020</v>
@@ -903,24 +772,24 @@
       <c r="G6" s="5">
         <v>0</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="5">
         <v>250</v>
       </c>
       <c r="J6" s="5"/>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" ht="16">
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" s="6" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>0</v>
@@ -932,29 +801,29 @@
         <f>J7-J7*K7</f>
         <v>462.4</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="5">
         <f>J7+J7*K7</f>
         <v>693.6</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <v>578</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="5">
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16">
+    <row r="8" spans="1:11" s="6" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>0</v>
@@ -966,29 +835,29 @@
         <f>J8-J8*K8</f>
         <v>6.8390000000000004</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="5">
         <f>J8+J8*K8</f>
         <v>12.700999999999999</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="7">
         <v>9.77</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="5">
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="32">
+    <row r="9" spans="1:11" s="6" customFormat="1" ht="28.8">
       <c r="A9" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>0</v>
@@ -1000,32 +869,32 @@
         <f>J9-J9*K9</f>
         <v>4.2549999999999999</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="5">
         <f>J9+J9*K9</f>
         <v>12.765000000000001</v>
       </c>
       <c r="J9" s="5">
         <v>8.51</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="5">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16">
+    <row r="10" spans="1:11" s="6" customFormat="1" ht="28.8">
       <c r="A10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="C10" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F10" s="5">
         <v>2030</v>
@@ -1033,27 +902,27 @@
       <c r="G10" s="5">
         <v>0</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="5">
         <v>1000000</v>
       </c>
       <c r="I10" s="5"/>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" ht="32">
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" s="6" customFormat="1" ht="28.8">
       <c r="A11" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F11" s="5">
         <v>2030</v>
@@ -1061,24 +930,24 @@
       <c r="G11" s="5">
         <v>0</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="5">
         <v>2000</v>
       </c>
       <c r="I11" s="5"/>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" ht="16">
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" s="6" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>0</v>
@@ -1089,27 +958,27 @@
       <c r="G12" s="5">
         <v>0</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="5">
         <v>20</v>
       </c>
       <c r="I12" s="5"/>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" ht="16">
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" s="6" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F13" s="5">
         <v>2040</v>
@@ -1117,44 +986,34 @@
       <c r="G13" s="5">
         <v>100</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="5">
         <v>1000</v>
       </c>
       <c r="I13" s="5"/>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" ht="17">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" ht="16.8">
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="3"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="17">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
+    <row r="15" spans="1:11" ht="16.8">
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="3"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="17">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
+    <row r="16" spans="1:11" ht="16.8">
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="3"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" ht="17">
-      <c r="A17"/>
+    <row r="17" spans="1:9" ht="16.8">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1163,8 +1022,7 @@
       <c r="G17" s="3"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" ht="17">
-      <c r="A18"/>
+    <row r="18" spans="1:9" ht="16.8">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1173,8 +1031,7 @@
       <c r="G18" s="3"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" ht="17">
-      <c r="A19"/>
+    <row r="19" spans="1:9" ht="16.8">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1183,8 +1040,7 @@
       <c r="G19" s="3"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" ht="16">
-      <c r="A20"/>
+    <row r="20" spans="1:9" ht="15.6">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1193,7 +1049,7 @@
       <c r="G20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" ht="17">
+    <row r="21" spans="1:9" ht="16.8">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
@@ -1203,7 +1059,7 @@
       <c r="G21" s="2"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="17">
+    <row r="22" spans="1:9" ht="16.8">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1213,7 +1069,7 @@
       <c r="G22" s="3"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" ht="17">
+    <row r="23" spans="1:9" ht="16.8">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1225,10 +1081,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A17:A19">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
